--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>myWxDo_Repeater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>启动命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,18 @@
   </si>
   <si>
     <t>统一启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myRobot_Repeater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -427,47 +435,53 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -485,20 +499,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复读功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Repeater</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>平台列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复读机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -464,24 +464,24 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -535,7 +535,6 @@
     <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,16 @@
   <si>
     <t>复读机</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myRobot_Robot</t>
+  </si>
+  <si>
+    <t>ChatRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天机器人</t>
   </si>
 </sst>
 </file>
@@ -126,12 +136,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,7 +441,7 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
@@ -499,7 +512,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -521,20 +562,6 @@
     <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>聊天机器人</t>
+  </si>
+  <si>
+    <t>测试群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +437,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,6 +515,9 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -539,6 +546,9 @@
       </c>
       <c r="I3" t="b">
         <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>测试群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myRobot_Bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BillManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +449,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,7 +457,7 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
@@ -551,7 +563,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>BillManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +453,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting.xlsx
@@ -100,7 +100,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试群</t>
+    <t>测试群、茶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -465,7 +465,7 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
